--- a/data/trans_bre/P16B06-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16B06-Habitat-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P16B06-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16B06-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -624,12 +624,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,2</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,36</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,72</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,89%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,72%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 58,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 45,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,61; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 140,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 83,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,61; 0,0</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,57</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,35%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,36%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,57%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,52; 15,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,93; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,28; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,86; 18,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,93; 0,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,28; 0,0</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>7,87</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,8</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,01%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,02%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-7,03; 44,32</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>-3,54; 23,22</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>-7,04; 77,53</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,54; 30,7</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,76</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,72</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,24</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,79%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,73%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,18; 20,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,69; 8,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,96; 21,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,15; 27,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,9; 10,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,11; 28,93</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,48</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,56%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,31; 14,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,01; 6,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,77; 6,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,39; 18,49</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,03; 6,84</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,83; 7,15</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B06-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16B06-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,67</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,68</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,34</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>-3,34%</t>
         </is>
       </c>
     </row>
@@ -642,39 +642,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,46; 46,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 33,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,2; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,57; 88,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 50,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,2; 0,0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>12,2</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,36</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-3,72</t>
+          <t>-3,57</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,89%</t>
+          <t>-1,35%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>-1,36%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-3,72%</t>
+          <t>-3,57%</t>
         </is>
       </c>
     </row>
@@ -722,39 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 58,46</t>
+          <t>-14,52; 15,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,36</t>
+          <t>-6,93; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,61; 0,0</t>
+          <t>-11,28; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 140,73</t>
+          <t>-14,86; 18,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 83,01</t>
+          <t>-6,93; 0,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-12,61; 0,0</t>
+          <t>-11,28; 0,0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>7,87</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,57</t>
+          <t>3,8</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,35%</t>
+          <t>9,01%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,57%</t>
+          <t>4,02%</t>
         </is>
       </c>
     </row>
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,52; 15,53</t>
+          <t>-7,03; 44,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,28; 0,0</t>
+          <t>-3,54; 23,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-14,86; 18,66</t>
+          <t>-7,04; 77,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,28; 0,0</t>
+          <t>-3,54; 30,7</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,87</t>
+          <t>5,76</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,72</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,8</t>
+          <t>4,24</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,01%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>-1,79%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>4,73%</t>
         </is>
       </c>
     </row>
@@ -882,39 +882,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 44,32</t>
+          <t>-3,18; 20,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,69; 8,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 23,22</t>
+          <t>-4,96; 21,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 77,53</t>
+          <t>-3,15; 27,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,9; 10,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 30,7</t>
+          <t>-5,11; 28,93</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,76</t>
+          <t>4,48</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,24</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,79%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>0,56%</t>
         </is>
       </c>
     </row>
@@ -962,124 +962,44 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 20,9</t>
+          <t>-2,31; 14,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,69; 8,96</t>
+          <t>-3,01; 6,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 21,56</t>
+          <t>-3,77; 6,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 27,23</t>
+          <t>-2,39; 18,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,9; 10,22</t>
+          <t>-3,03; 6,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 28,93</t>
+          <t>-3,83; 7,15</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>4,48</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,51</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,54</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>4,95%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,53%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,56%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-2,31; 14,98</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-3,01; 6,38</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-3,77; 6,48</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-2,39; 18,49</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-3,03; 6,84</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-3,83; 7,15</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1088,7 +1008,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P16B06-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16B06-Habitat-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,46; 46,94</t>
+          <t>-15,33; 46,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,67</t>
+          <t>0,0; 35,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,2; 0,0</t>
+          <t>-11,59; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,57; 88,24</t>
+          <t>-15,37; 82,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 50,76</t>
+          <t>0,0; 56,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,2; 0,0</t>
+          <t>-11,59; 0,0</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-14,52; 15,53</t>
+          <t>-13,65; 17,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 0,0</t>
+          <t>-8,19; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,28; 0,0</t>
+          <t>-10,69; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,86; 18,66</t>
+          <t>-13,8; 21,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 0,0</t>
+          <t>-8,19; 0,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-11,28; 0,0</t>
+          <t>-10,69; 0,0</t>
         </is>
       </c>
     </row>
@@ -802,7 +802,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 44,32</t>
+          <t>-7,06; 44,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -812,12 +812,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 23,22</t>
+          <t>-3,5; 23,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 77,53</t>
+          <t>-7,06; 81,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 30,7</t>
+          <t>-3,5; 30,91</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 20,9</t>
+          <t>-3,16; 19,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,69; 8,96</t>
+          <t>-9,26; 10,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 21,56</t>
+          <t>-5,04; 19,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 27,23</t>
+          <t>-2,99; 25,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,9; 10,22</t>
+          <t>-9,39; 11,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 28,93</t>
+          <t>-5,1; 25,53</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 14,98</t>
+          <t>-1,77; 14,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 6,38</t>
+          <t>-2,83; 5,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 6,48</t>
+          <t>-3,19; 7,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 18,49</t>
+          <t>-1,81; 17,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 6,84</t>
+          <t>-2,84; 6,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 7,15</t>
+          <t>-3,21; 8,47</t>
         </is>
       </c>
     </row>
